--- a/data/sample_policing_input.xlsx
+++ b/data/sample_policing_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anonymous/Desktop/research/synthetic_intervention/si-library/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xyhan/Documents/research/synthetic-intervention/si-library/public-release/si-library/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4114560B-4663-3441-98AB-3BFA35EAFA47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975910EE-8C06-5249-9924-695B3D80A0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="660" windowWidth="23840" windowHeight="15160" activeTab="2" xr2:uid="{F87FF13C-85EF-AB46-810F-F6C5FAB1CC52}"/>
+    <workbookView xWindow="1760" yWindow="660" windowWidth="23840" windowHeight="15160" xr2:uid="{F87FF13C-85EF-AB46-810F-F6C5FAB1CC52}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -440,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC9DBDA8-DF41-6A4A-A7AD-ED48D8125443}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -485,7 +485,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -502,7 +502,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -516,13 +516,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
@@ -567,7 +567,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1">
         <v>2</v>
@@ -621,7 +621,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -638,7 +638,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -754,10 +754,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B19" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C19" s="1">
         <v>0</v>
@@ -833,13 +833,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B24" s="1">
         <v>1</v>
       </c>
       <c r="C24" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" s="2">
         <v>47</v>
@@ -965,7 +965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B310B42-230A-1D4A-9AA5-98733E921B86}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11:C12"/>
     </sheetView>
   </sheetViews>

--- a/data/sample_policing_input.xlsx
+++ b/data/sample_policing_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xyhan/Documents/research/synthetic-intervention/si-library/public-release/si-library/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975910EE-8C06-5249-9924-695B3D80A0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A66BC20-B6A0-C145-8BF4-46B9017A678D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="660" windowWidth="23840" windowHeight="15160" xr2:uid="{F87FF13C-85EF-AB46-810F-F6C5FAB1CC52}"/>
+    <workbookView xWindow="3800" yWindow="2340" windowWidth="23840" windowHeight="15160" xr2:uid="{F87FF13C-85EF-AB46-810F-F6C5FAB1CC52}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="intervention covariates" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$C$1:$C$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$B$1:$B$30</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -438,10 +438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC9DBDA8-DF41-6A4A-A7AD-ED48D8125443}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -463,7 +464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -480,7 +481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -497,7 +498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -514,7 +515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -531,7 +532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -548,7 +549,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -616,7 +617,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -633,7 +634,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -650,7 +651,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -667,7 +668,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -684,7 +685,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -767,7 +768,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>2</v>
       </c>
@@ -782,7 +783,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>2</v>
       </c>
@@ -797,7 +798,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>2</v>
       </c>
@@ -814,7 +815,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>2</v>
       </c>
@@ -831,7 +832,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -880,28 +881,28 @@
       </c>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -909,7 +910,13 @@
       <c r="E30" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C30" xr:uid="{89176AB9-A6AD-B84F-92B4-FCFFACA02B88}"/>
+  <autoFilter ref="B1:B30" xr:uid="{DC9DBDA8-DF41-6A4A-A7AD-ED48D8125443}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="2"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
